--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/nbar_mechanism_bayo/nbar_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/nbar_mechanism_bayo/nbar_mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\nbar_mechanism_bayo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\Thesis-Project\Multibody-System-Thesis-Software\mbs-EP-v.1.0.6 - eq mot\Excel Files\nbar_mechanism_bayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B44ED-B9A6-4D8D-8C54-42E735506B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649FE464-5B43-4136-9FF4-19CAFC4068BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="1710" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="254">
   <si>
     <t>Mass</t>
   </si>
@@ -1125,322 +1125,216 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1514,9 +1408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,926 +1884,918 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="J2" s="73" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="J2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="46">
+      <c r="C3" s="39"/>
+      <c r="D3" s="22">
         <v>10</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="80" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="40" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="46">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="59"/>
+      <c r="P4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="40" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="40" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="56" t="s">
+      <c r="Q6" s="30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="46">
+      <c r="C7" s="39"/>
+      <c r="D7" s="22">
         <v>-9.8066499999999994</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="83"/>
-      <c r="M7" s="40" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="40" t="s">
+      <c r="O7" s="59"/>
+      <c r="P7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="40" t="s">
+      <c r="L8" s="46"/>
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="40" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="40" t="s">
+      <c r="L9" s="46"/>
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="40" t="s">
+      <c r="O9" s="59"/>
+      <c r="P9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="40" t="s">
+      <c r="L10" s="46"/>
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="45" t="s">
+      <c r="O10" s="59"/>
+      <c r="P10" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="40" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="45" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="Q11" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="40" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="40" t="s">
+      <c r="O12" s="59"/>
+      <c r="P12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="59"/>
+      <c r="P14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="J15" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="J16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="59"/>
+      <c r="P16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="44"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E18" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="96"/>
-      <c r="P13" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="59" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="J18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E19" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="59" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="J19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="59"/>
+      <c r="P19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E20" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="J15" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="96"/>
-      <c r="P15" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="59" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="J20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="46"/>
+      <c r="M20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="J16" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q16" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="J17" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="J18" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="J19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="J20" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="J21" s="40" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="J21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="46"/>
+      <c r="M21" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="45" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q21" s="30" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="59">
+      <c r="C22" s="64"/>
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="106" t="s">
+      <c r="E22" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="85" t="s">
+      <c r="F22" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="71">
+      <c r="G22" s="48"/>
+      <c r="H22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="84"/>
-      <c r="M22" s="41" t="s">
+      <c r="L22" s="47"/>
+      <c r="M22" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="45" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="71"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="45" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="14"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="71"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="28" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="71"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="28" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="14"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q25" s="57" t="s">
+      <c r="Q25" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="71"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="28" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="Q26" s="30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="71"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="28" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q27" s="57" t="s">
+      <c r="Q27" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="71"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="28" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q28" s="57" t="s">
+      <c r="Q28" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="71"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="28" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="Q29" s="57" t="s">
+      <c r="Q29" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="28" t="s">
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="Q30" s="57" t="s">
+      <c r="Q30" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="28" t="s">
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="Q31" s="57" t="s">
+      <c r="Q31" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="28" t="s">
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="Q32" s="57" t="s">
+      <c r="Q32" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="28" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="Q33" s="57" t="s">
+      <c r="Q33" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="28" t="s">
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Q34" s="57" t="s">
+      <c r="Q34" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="28" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="Q35" s="57" t="s">
+      <c r="Q35" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="28" t="s">
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="Q36" s="57" t="s">
+      <c r="Q36" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="89"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="28" t="s">
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="92"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="28" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="Q38" s="57" t="s">
+      <c r="Q38" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="28" t="s">
+      <c r="P39" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q39" s="57" t="s">
+      <c r="Q39" s="30" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2979,903 +2862,903 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="74" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="110" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="74" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="85" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="110" t="s">
+      <c r="S2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="74" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="97" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="74" t="s">
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="85"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="16" t="s">
+      <c r="R3" s="48"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0</v>
-      </c>
-      <c r="M4" s="27">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
-        <v>0</v>
-      </c>
-      <c r="O4" s="27">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>0</v>
-      </c>
-      <c r="R4" s="27">
-        <v>0</v>
-      </c>
-      <c r="S4" s="62">
-        <v>0</v>
-      </c>
-      <c r="T4" s="62">
-        <v>0</v>
-      </c>
-      <c r="U4" s="62">
-        <v>0</v>
-      </c>
-      <c r="V4" s="62">
-        <v>0</v>
-      </c>
-      <c r="W4" s="27">
-        <v>0</v>
-      </c>
-      <c r="X4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="27">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>0</v>
+      </c>
+      <c r="U4" s="32">
+        <v>0</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="70">
-        <v>0</v>
-      </c>
-      <c r="D5" s="70">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.5</v>
       </c>
-      <c r="E5" s="70">
-        <v>0</v>
-      </c>
-      <c r="F5" s="69">
-        <v>0</v>
-      </c>
-      <c r="G5" s="69">
-        <v>0</v>
-      </c>
-      <c r="H5" s="69">
-        <v>0</v>
-      </c>
-      <c r="I5" s="69">
-        <v>0</v>
-      </c>
-      <c r="J5" s="69">
-        <v>0</v>
-      </c>
-      <c r="K5" s="69">
-        <v>0</v>
-      </c>
-      <c r="L5" s="69">
-        <v>0</v>
-      </c>
-      <c r="M5" s="69">
-        <v>0</v>
-      </c>
-      <c r="N5" s="69">
-        <v>0</v>
-      </c>
-      <c r="O5" s="69">
-        <v>0</v>
-      </c>
-      <c r="P5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="69">
-        <v>0</v>
-      </c>
-      <c r="R5" s="69">
-        <v>0</v>
-      </c>
-      <c r="S5" s="69">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>1.03</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="32">
         <v>9.1350000000000001E-2</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="32">
         <v>1.707E-4</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="32">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="W5" s="69">
+      <c r="W5" s="6">
         <v>0.75</v>
       </c>
-      <c r="X5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="69">
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
         <v>-1.5</v>
       </c>
-      <c r="AC5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="69">
+      <c r="AC5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="70">
-        <v>0</v>
-      </c>
-      <c r="F6" s="69">
-        <v>0</v>
-      </c>
-      <c r="G6" s="69">
-        <v>0</v>
-      </c>
-      <c r="H6" s="69">
-        <v>0</v>
-      </c>
-      <c r="I6" s="69">
-        <v>0</v>
-      </c>
-      <c r="J6" s="69">
-        <v>0</v>
-      </c>
-      <c r="K6" s="69">
-        <v>0</v>
-      </c>
-      <c r="L6" s="69">
-        <v>0</v>
-      </c>
-      <c r="M6" s="69">
-        <v>0</v>
-      </c>
-      <c r="N6" s="69">
-        <v>0</v>
-      </c>
-      <c r="O6" s="69">
-        <v>0</v>
-      </c>
-      <c r="P6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="69">
-        <v>0</v>
-      </c>
-      <c r="R6" s="69">
-        <v>0</v>
-      </c>
-      <c r="S6" s="72">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
         <v>1.03</v>
       </c>
-      <c r="T6" s="61">
+      <c r="T6" s="32">
         <v>1.707E-4</v>
       </c>
-      <c r="U6" s="61">
+      <c r="U6" s="32">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="V6" s="61">
+      <c r="V6" s="32">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="W6" s="69">
+      <c r="W6" s="6">
         <v>1.5</v>
       </c>
-      <c r="X6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="69">
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="6">
         <v>0.5</v>
       </c>
-      <c r="E7" s="70">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0</v>
-      </c>
-      <c r="G7" s="69">
-        <v>0</v>
-      </c>
-      <c r="H7" s="69">
-        <v>0</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69">
-        <v>0</v>
-      </c>
-      <c r="K7" s="69">
-        <v>0</v>
-      </c>
-      <c r="L7" s="69">
-        <v>0</v>
-      </c>
-      <c r="M7" s="69">
-        <v>0</v>
-      </c>
-      <c r="N7" s="69">
-        <v>0</v>
-      </c>
-      <c r="O7" s="69">
-        <v>0</v>
-      </c>
-      <c r="P7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="69">
-        <v>0</v>
-      </c>
-      <c r="R7" s="69">
-        <v>0</v>
-      </c>
-      <c r="S7" s="72">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
         <v>1.03</v>
       </c>
-      <c r="T7" s="61">
+      <c r="T7" s="32">
         <v>9.1350000000000001E-2</v>
       </c>
-      <c r="U7" s="61">
+      <c r="U7" s="32">
         <v>1.707E-4</v>
       </c>
-      <c r="V7" s="61">
+      <c r="V7" s="32">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="W7" s="69">
+      <c r="W7" s="6">
         <v>0.75</v>
       </c>
-      <c r="X7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="69">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
         <v>-1.5</v>
       </c>
-      <c r="AC7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="69">
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="6">
         <v>1.5</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="70">
-        <v>0</v>
-      </c>
-      <c r="F8" s="69">
-        <v>0</v>
-      </c>
-      <c r="G8" s="69">
-        <v>0</v>
-      </c>
-      <c r="H8" s="69">
-        <v>0</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69">
-        <v>0</v>
-      </c>
-      <c r="K8" s="69">
-        <v>0</v>
-      </c>
-      <c r="L8" s="69">
-        <v>0</v>
-      </c>
-      <c r="M8" s="69">
-        <v>0</v>
-      </c>
-      <c r="N8" s="69">
-        <v>0</v>
-      </c>
-      <c r="O8" s="69">
-        <v>0</v>
-      </c>
-      <c r="P8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="69">
-        <v>0</v>
-      </c>
-      <c r="R8" s="69">
-        <v>0</v>
-      </c>
-      <c r="S8" s="72">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>1.03</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="32">
         <v>1.707E-4</v>
       </c>
-      <c r="U8" s="61">
+      <c r="U8" s="32">
         <v>9.1350000000000001E-2</v>
       </c>
-      <c r="V8" s="61">
+      <c r="V8" s="32">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="6">
         <v>1.5</v>
       </c>
-      <c r="X8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="69">
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="6">
         <v>0.5</v>
       </c>
-      <c r="E9" s="70">
-        <v>0</v>
-      </c>
-      <c r="F9" s="69">
-        <v>0</v>
-      </c>
-      <c r="G9" s="69">
-        <v>0</v>
-      </c>
-      <c r="H9" s="69">
-        <v>0</v>
-      </c>
-      <c r="I9" s="69">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69">
-        <v>0</v>
-      </c>
-      <c r="K9" s="69">
-        <v>0</v>
-      </c>
-      <c r="L9" s="69">
-        <v>0</v>
-      </c>
-      <c r="M9" s="69">
-        <v>0</v>
-      </c>
-      <c r="N9" s="69">
-        <v>0</v>
-      </c>
-      <c r="O9" s="69">
-        <v>0</v>
-      </c>
-      <c r="P9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="69">
-        <v>0</v>
-      </c>
-      <c r="R9" s="69">
-        <v>0</v>
-      </c>
-      <c r="S9" s="72">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>1.03</v>
       </c>
-      <c r="T9" s="61">
+      <c r="T9" s="32">
         <v>9.1350000000000001E-2</v>
       </c>
-      <c r="U9" s="61">
+      <c r="U9" s="32">
         <v>1.707E-4</v>
       </c>
-      <c r="V9" s="61">
+      <c r="V9" s="32">
         <v>9.1450000000000004E-2</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="6">
         <v>0.75</v>
       </c>
-      <c r="X9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="69">
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
         <v>-1.5</v>
       </c>
-      <c r="AC9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="69">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="69">
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3885,9 +3768,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3900,9 +3783,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3918,9 +3801,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3936,9 +3819,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3954,9 +3837,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3972,9 +3855,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3990,9 +3873,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4003,148 +3886,148 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
@@ -6898,848 +6781,829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="115" t="s">
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114" t="s">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114" t="s">
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13" t="s">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="42">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="42">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="42">
-        <v>0</v>
-      </c>
-      <c r="K17" s="42">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="42">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="42">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="42">
-        <v>0</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="42">
-        <v>0</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114" t="s">
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-    </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+    </row>
+    <row r="25" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114" t="s">
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-    </row>
-    <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+    </row>
+    <row r="29" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-    </row>
-    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+    </row>
+    <row r="31" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114" t="s">
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114" t="s">
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-    </row>
-    <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="112" t="s">
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+    </row>
+    <row r="32" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-    </row>
-    <row r="35" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+    </row>
+    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="116"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="115" t="s">
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="116"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="114" t="s">
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114" t="s">
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-    </row>
-    <row r="36" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+    </row>
+    <row r="36" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -7753,42 +7617,40 @@
       <c r="R37"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="11"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="12"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -7801,14 +7663,13 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="12"/>
+    <row r="40" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -7822,53 +7683,47 @@
       <c r="R40"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -7882,76 +7737,70 @@
       <c r="R43"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="118" t="s">
+      <c r="A46" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="114" t="s">
+      <c r="E47" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-    </row>
-    <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42" t="s">
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+    </row>
+    <row r="48" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="7">
         <v>2</v>
       </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
         <v>0</v>
       </c>
       <c r="H48"/>
@@ -7966,20 +7815,20 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="7">
         <v>2</v>
       </c>
-      <c r="E49" s="17">
-        <v>0</v>
-      </c>
-      <c r="F49" s="17">
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
         <v>1</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="7">
         <v>0</v>
       </c>
       <c r="H49"/>
@@ -7994,21 +7843,21 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42" t="s">
+    <row r="50" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="7">
         <v>3</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="7">
         <v>1</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="7">
         <v>0</v>
       </c>
       <c r="H50"/>
@@ -8024,73 +7873,73 @@
       <c r="R50"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="17">
+      <c r="C51" s="5"/>
+      <c r="D51" s="7">
         <v>4</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="7">
         <v>1</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="7">
         <v>1</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="7">
         <v>1</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="42" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="42">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
         <v>6</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="F54" s="42">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8165,68 +8014,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="63" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" s="23"/>
+      <c r="I4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8248,7 +8097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -8274,537 +8123,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="125" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="127"/>
-      <c r="AB2" s="128" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="AB2" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="130"/>
-    </row>
-    <row r="3" spans="1:33" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="92"/>
+    </row>
+    <row r="3" spans="1:33" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="141" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="58" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="145" t="s">
+      <c r="R3" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="145"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="133"/>
+      <c r="S3" s="106"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="95"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="133"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="95"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="133"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="95"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="146" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="133"/>
-    </row>
-    <row r="7" spans="1:33" s="31" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="95"/>
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="141" t="s">
+      <c r="G7" s="105"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="36" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="123" t="s">
+      <c r="Q7" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="133"/>
+      <c r="R7" s="86"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="95"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q8" s="42"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="133"/>
+      <c r="Q8" s="1"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="95"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="98"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="125" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-    </row>
-    <row r="11" spans="1:33" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" spans="1:33" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="141" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="137" t="s">
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="M11" s="138"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137" t="s">
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="36" t="s">
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="U11" s="65" t="s">
+      <c r="U11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="V11" s="65" t="s">
+      <c r="V11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="W11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="123" t="s">
+      <c r="X11" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="124"/>
+      <c r="Y11" s="86"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
     </row>
     <row r="15" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="125" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-    </row>
-    <row r="16" spans="1:33" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+    </row>
+    <row r="16" spans="1:33" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="65" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="124"/>
+      <c r="Q16" s="86"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -8856,537 +8705,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="F1" s="77" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="F1" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="I1" s="77" t="s">
+      <c r="G1" s="42"/>
+      <c r="I1" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="F3" s="55" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="F4" s="55" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="F5" s="55" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="55" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="F8" s="55" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="55" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="F10" s="55" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="F11" s="55" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="F13" s="55" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="F14" s="55" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="F15" s="55" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="30" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="F16" s="55" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="F17" s="55" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="F18" s="55" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="F19" s="55" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="F20" s="55" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="17"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="F21" s="55" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="17"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="F22" s="55" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="F23" s="28" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="F24" s="28" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="F25" s="28" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="F26" s="28" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="F27" s="28" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="F28" s="28" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="F29" s="28" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="F30" s="28" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="F31" s="28" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="F32" s="28" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="F33" s="28" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="F34" s="28" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="F35" s="28" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="F36" s="28" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="F37" s="28" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="F38" s="28" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="30" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
